--- a/Arduino/zzLibraries/thermistor.xlsx
+++ b/Arduino/zzLibraries/thermistor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Desktop\Incubator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\Github Projects\Incubator\Arduino\zzLibraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>C deg</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>968.35 analogRead        28.93C          84.08F</t>
+  </si>
+  <si>
+    <t>968.40 analogRead        28.91C          84.04F</t>
+  </si>
+  <si>
+    <t>968.45 analogRead        28.89C          84.00F</t>
   </si>
 </sst>
 </file>
@@ -2881,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2937,7 +2946,7 @@
         <v>400</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D62" si="1">(B3*(9/5))+32</f>
+        <f t="shared" ref="D3:D64" si="1">(B3*(9/5))+32</f>
         <v>563</v>
       </c>
     </row>
@@ -3883,6 +3892,44 @@
       <c r="D62">
         <f t="shared" si="1"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>69.800000000000011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>28.93</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>84.073999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
